--- a/Catalog.xlsx
+++ b/Catalog.xlsx
@@ -8,43 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npiskarev\source\repos\UncomClc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E89ED3D-2376-455A-9739-C264F1DDADA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92D2B11-443F-4F22-A365-D39679ADE4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="165" windowWidth="28800" windowHeight="15435" tabRatio="792" activeTab="4" xr2:uid="{37A18CC1-A847-4D33-9522-2C9ABCCA218F}"/>
+    <workbookView xWindow="-28800" yWindow="165" windowWidth="28800" windowHeight="15435" tabRatio="792" firstSheet="2" activeTab="14" xr2:uid="{37A18CC1-A847-4D33-9522-2C9ABCCA218F}"/>
   </bookViews>
   <sheets>
-    <sheet name="КНММ (до 200 °С)" sheetId="8" r:id="rId1"/>
-    <sheet name="КНММН (до 400 °С)" sheetId="7" r:id="rId2"/>
-    <sheet name="КНМС (до 600 °С)" sheetId="6" r:id="rId3"/>
-    <sheet name="КНМСин (до 600 °С)" sheetId="5" r:id="rId4"/>
+    <sheet name="КНММ" sheetId="8" r:id="rId1"/>
+    <sheet name="КНММН" sheetId="7" r:id="rId2"/>
+    <sheet name="КНМС" sheetId="6" r:id="rId3"/>
+    <sheet name="КНМСин" sheetId="5" r:id="rId4"/>
     <sheet name="КНМС825" sheetId="4" r:id="rId5"/>
-    <sheet name="2КНММ-В3 (до 200 °С)" sheetId="12" r:id="rId6"/>
-    <sheet name="2КНММН-В3 (до 400 °С)" sheetId="11" r:id="rId7"/>
-    <sheet name="2КНМС-В3 (до 600 °С)" sheetId="10" r:id="rId8"/>
-    <sheet name="2КНМСин-В3 (до 600 °С)" sheetId="9" r:id="rId9"/>
-    <sheet name="2КНМС825-В3 (до 650 °С)" sheetId="3" r:id="rId10"/>
-    <sheet name="2КНММ-В6 (до 200 °С)" sheetId="16" r:id="rId11"/>
-    <sheet name="2КНММН-В6 (до 400 °С)" sheetId="15" r:id="rId12"/>
-    <sheet name="2КНМС-В6 (до 600 °С)" sheetId="14" r:id="rId13"/>
-    <sheet name="2КНМСин-В6 (до 600 °С)" sheetId="13" r:id="rId14"/>
-    <sheet name="2КНМС825-В6 (до 650 °С)" sheetId="2" r:id="rId15"/>
+    <sheet name="2КНММ-В3" sheetId="12" r:id="rId6"/>
+    <sheet name="2КНММН-В3" sheetId="11" r:id="rId7"/>
+    <sheet name="2КНМС-В3" sheetId="10" r:id="rId8"/>
+    <sheet name="2КНМСин-В3" sheetId="9" r:id="rId9"/>
+    <sheet name="2КНМС825-В3" sheetId="3" r:id="rId10"/>
+    <sheet name="2КНММ-В6" sheetId="16" r:id="rId11"/>
+    <sheet name="2КНММН-В6" sheetId="15" r:id="rId12"/>
+    <sheet name="2КНМС-В6" sheetId="14" r:id="rId13"/>
+    <sheet name="2КНМСин-В6" sheetId="13" r:id="rId14"/>
+    <sheet name="2КНМС825-В6" sheetId="2" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2КНММ-В3 (до 200 °С)'!$A$2:$O$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'2КНММ-В6 (до 200 °С)'!$A$2:$O$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2КНММН-В3 (до 400 °С)'!$A$2:$O$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'2КНММН-В6 (до 400 °С)'!$A$2:$O$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'2КНМС825-В3 (до 650 °С)'!$A$2:$O$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'2КНМС825-В6 (до 650 °С)'!$A$2:$O$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2КНМС-В3 (до 600 °С)'!$A$2:$O$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'2КНМС-В6 (до 600 °С)'!$A$2:$O$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'2КНМСин-В3 (до 600 °С)'!$A$2:$O$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'2КНМСин-В6 (до 600 °С)'!$A$2:$O$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'КНММ (до 200 °С)'!$A$2:$O$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'КНММН (до 400 °С)'!$A$2:$O$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'КНМС (до 600 °С)'!$A$2:$O$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2КНММ-В3'!$A$2:$O$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'2КНММ-В6'!$A$2:$O$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2КНММН-В3'!$A$2:$O$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'2КНММН-В6'!$A$2:$O$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'2КНМС825-В3'!$A$2:$O$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'2КНМС825-В6'!$A$2:$O$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2КНМС-В3'!$A$2:$O$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'2КНМС-В6'!$A$2:$O$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'2КНМСин-В3'!$A$2:$O$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'2КНМСин-В6'!$A$2:$O$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">КНММ!$A$2:$O$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">КНММН!$A$2:$O$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">КНМС!$A$2:$O$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">КНМС825!$A$2:$O$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'КНМСин (до 600 °С)'!$A$2:$O$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">КНМСин!$A$2:$O$31</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -7055,7 +7055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C218F215-35A3-4C5C-92B2-E44C0A704234}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
@@ -12493,7 +12493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610A01F2-AC69-4E72-8630-6F0BE6296302}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
     </sheetView>
